--- a/excel sheet/Other_new_single.xlsx
+++ b/excel sheet/Other_new_single.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Box Sync\Mine\Stata\My Programs\recode other_specify\excel sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A9134D-588A-4706-8841-AAE6DA4F6DDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44ED5CE-83A0-49C5-AE08-F1D52807220E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9CE03A62-5D0D-45EA-AAF8-851D410E2B74}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9CE03A62-5D0D-45EA-AAF8-851D410E2B74}"/>
   </bookViews>
   <sheets>
     <sheet name="9. specify" sheetId="2" r:id="rId1"/>
@@ -439,19 +439,19 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <pane ySplit="1" topLeftCell="A3543" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3543" sqref="F3543"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -555,6 +555,11 @@
       <c r="C60" s="5"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{B60B8C90-1B51-4444-A925-8F995B27ACCF}">
+      <formula1>"Single, Multiple"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
